--- a/GePS-HOPES_YEA/documents/NonCatalog_Item_Import.xlsx
+++ b/GePS-HOPES_YEA/documents/NonCatalog_Item_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Personal_Folder\GePS-Testing\GePS-HOPES_YEA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ECBD73-C1B8-42EB-9D0A-74D42D0B889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61283B48-2925-4D66-86B6-F63B1CB089BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D71ECD4-D216-45FC-A56B-96951878AF7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D71ECD4-D216-45FC-A56B-96951878AF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,16 +437,18 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -474,7 +476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -488,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
